--- a/config_ios提审/game_gift_style_config.xlsx
+++ b/config_ios提审/game_gift_style_config.xlsx
@@ -614,15 +614,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","dby_btn_sd","pay_icon_gold8","pay_icon_gold11","dby_btn_sd","pay_icon_gold10","pay_icon_gold4","dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","dby_btn_sd","pay_icon_gold10","pay_icon_gold4","dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","dby_btn_sd","pay_icon_gold8","pay_icon_gold11","dby_btn_sd","pay_icon_gold10","pay_icon_gold4","dby_btn_sd",</t>
+    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1105,7 +1105,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1430,7 +1430,7 @@
         <v>156</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -1486,7 +1486,7 @@
         <v>157</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1542,7 +1542,7 @@
         <v>158</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -1598,7 +1598,7 @@
         <v>159</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>

--- a/config_ios提审/game_gift_style_config.xlsx
+++ b/config_ios提审/game_gift_style_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="162">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -610,20 +610,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","3dby_btn_sd","pay_icon_gold8","pay_icon_gold11","3dby_btn_sd","pay_icon_gold10","pay_icon_gold4","3dby_btn_sd",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>"pay_icon_gold7","pay_icon_gold3","ty_btn_sd","pay_icon_gold8","pay_icon_gold11","ty_btn_sd","pay_icon_gold10","pay_icon_gold4","ty_btn_sd",</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1092,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1318,7 +1305,7 @@
         <v>160</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -1486,7 +1473,7 @@
         <v>157</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1542,7 +1529,7 @@
         <v>158</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>

--- a/config_ios提审/game_gift_style_config.xlsx
+++ b/config_ios提审/game_gift_style_config.xlsx
@@ -586,31 +586,31 @@
     <t>"pay_icon_gold7","com_icon_yb","com_award_icon_chanz1","pay_icon_gold8","com_award_icon_yb1","com_award_icon_chanz2","pay_icon_gold10","com_award_icon_yb2","com_award_icon_chanz3",</t>
   </si>
   <si>
+    <t>"pay_icon_gold7","pay_icon_gold3","ty_btn_sd","pay_icon_gold8","pay_icon_gold11","ty_btn_sd","pay_icon_gold10","pay_icon_gold4","ty_btn_sd",</t>
+  </si>
+  <si>
+    <t>"60万金币","10万金币","锁定*5","500万金币","20万金币","锁定*10","980万金币","30万金币","锁定*20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"10万金币","10万金币","锁定*1","30万金币","20万金币","锁定*2","60万金币","30万金币","锁定*3",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"60万金币","20万金币","锁定*3","100万金币","20万金币","锁定*10","180万金币","20万金币","锁定*20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"180万金币","10万金币","锁定*10","480万金币","20万金币","锁定*10","980万金币","30万金币","锁定*20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万金币","20万金币","锁定*10","980万金币","30万金币","锁定*20","1980万金币","80万金币","锁定*30",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万金币","30万金币","锁定*20","1980万金币","80万金币","锁定*30","4980万金币","150万金币","锁定*50",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币","10万金币","锁定*5","480万金币","20万金币","锁定*10","980万金币","30万金币","锁定*20",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pay_icon_gold7","pay_icon_gold3","ty_btn_sd","pay_icon_gold8","pay_icon_gold11","ty_btn_sd","pay_icon_gold10","pay_icon_gold4","ty_btn_sd",</t>
+    <t>"60万金币","20万金币","锁定*3","120万金币","20万金币","锁定*10","180万金币","20万金币","锁定*20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","锁定*10","500万金币","20万金币","锁定*10","980万金币","30万金币","锁定*20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币","20万金币","锁定*10","980万金币","30万金币","锁定*20","1980万金币","80万金币","锁定*30",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","锁定*20","1980万金币","80万金币","锁定*30","4880万金币","150万金币","锁定*50",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1089,10 +1089,10 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1302,10 +1302,10 @@
         <v>148</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
@@ -1358,10 +1358,10 @@
         <v>65</v>
       </c>
       <c r="O5" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>161</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -1414,10 +1414,10 @@
         <v>65</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P6" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
@@ -1470,10 +1470,10 @@
         <v>65</v>
       </c>
       <c r="O7" s="33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P7" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -1526,10 +1526,10 @@
         <v>65</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -1582,10 +1582,10 @@
         <v>65</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P9" s="32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
